--- a/Recuperação de Informação/trab quinta.xlsx
+++ b/Recuperação de Informação/trab quinta.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zorak\Documents\5Periodo\Recuperação de Informação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zorak\OneDrive\Documentos\Faculdade\5Periodo\Recuperação de Informação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A19B6A-2E74-42FD-B2C1-8BA200164ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B7425C-A413-4363-825F-F7FF9E7449F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="612" windowWidth="23256" windowHeight="12456" xr2:uid="{F1F99A19-4A33-42D6-BD87-92E9571E8A42}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{F1F99A19-4A33-42D6-BD87-92E9571E8A42}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
   <si>
     <t>D1</t>
   </si>
@@ -136,7 +134,10 @@
     <t>C)</t>
   </si>
   <si>
-    <t>Sim, é possivel utilizar o modelo vetorial para comparar documentos</t>
+    <t>Sim, é possivel utilizar o modelo vetorial para comparar documentos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -158,7 +159,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -171,22 +172,19 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -232,44 +230,59 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -634,15 +647,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62EA4B0B-A1F6-4EAE-AA69-698E76195D8F}">
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32:M36"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -663,7 +676,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
@@ -683,7 +696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
@@ -703,7 +716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
@@ -723,7 +736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
@@ -743,7 +756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
@@ -763,7 +776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
@@ -783,7 +796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
@@ -808,7 +821,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="C12" s="2" t="s">
         <v>10</v>
       </c>
@@ -843,9 +856,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C13" s="1">
-        <f>IF(C2&gt;0,1+LOG(C2,2),0)</f>
+        <f t="shared" ref="C13:C18" si="1">IF(C2&gt;0,1+LOG(C2,2),0)</f>
         <v>1</v>
       </c>
       <c r="D13" s="1">
@@ -853,15 +866,15 @@
         <v>1</v>
       </c>
       <c r="E13" s="1">
-        <f>IF(E2&gt;0,1+LOG(E2,2),0)</f>
+        <f t="shared" ref="E13:G18" si="2">IF(E2&gt;0,1+LOG(E2,2),0)</f>
         <v>0</v>
       </c>
       <c r="F13" s="1">
-        <f>IF(F2&gt;0,1+LOG(F2,2),0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G13" s="1">
-        <f>IF(G2&gt;0,1+LOG(G2,2),0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I13" s="5">
@@ -873,25 +886,25 @@
         <v>0.32192809488736235</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" ref="K13:N18" si="1">$I13*D13</f>
+        <f t="shared" ref="K13:N18" si="3">$I13*D13</f>
         <v>0.32192809488736235</v>
       </c>
       <c r="L13" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="1">
+        <f t="shared" si="3"/>
+        <v>0.32192809488736235</v>
+      </c>
+      <c r="N13" s="1">
+        <f t="shared" si="3"/>
+        <v>0.6438561897747247</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C14" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M13" s="1">
-        <f t="shared" si="1"/>
-        <v>0.32192809488736235</v>
-      </c>
-      <c r="N13" s="1">
-        <f t="shared" si="1"/>
-        <v>0.6438561897747247</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C14" s="1">
-        <f>IF(C3&gt;0,1+LOG(C3,2),0)</f>
         <v>1</v>
       </c>
       <c r="D14" s="1">
@@ -899,15 +912,15 @@
         <v>0</v>
       </c>
       <c r="E14" s="1">
-        <f>IF(E3&gt;0,1+LOG(E3,2),0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F14" s="1">
-        <f>IF(F3&gt;0,1+LOG(F3,2),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G14" s="1">
-        <f>IF(G3&gt;0,1+LOG(G3,2),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I14" s="5">
@@ -915,29 +928,29 @@
         <v>1.3219280948873624</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" ref="J14:J18" si="2">$I14*C14</f>
+        <f t="shared" ref="J14:J18" si="4">$I14*C14</f>
         <v>1.3219280948873624</v>
       </c>
       <c r="K14" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" si="3"/>
+        <v>1.3219280948873624</v>
+      </c>
+      <c r="M14" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C15" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="1">
-        <f t="shared" si="1"/>
-        <v>1.3219280948873624</v>
-      </c>
-      <c r="M14" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N14" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C15" s="1">
-        <f>IF(C4&gt;0,1+LOG(C4,2),0)</f>
         <v>0</v>
       </c>
       <c r="D15" s="1">
@@ -945,15 +958,15 @@
         <v>1</v>
       </c>
       <c r="E15" s="1">
-        <f>IF(E4&gt;0,1+LOG(E4,2),0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F15" s="1">
-        <f>IF(F4&gt;0,1+LOG(F4,2),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G15" s="1">
-        <f>IF(G4&gt;0,1+LOG(G4,2),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I15" s="5">
@@ -961,29 +974,29 @@
         <v>1.3219280948873624</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K15" s="1">
+        <f t="shared" si="3"/>
+        <v>1.3219280948873624</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" si="3"/>
+        <v>1.3219280948873624</v>
+      </c>
+      <c r="M15" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C16" s="1">
         <f t="shared" si="1"/>
-        <v>1.3219280948873624</v>
-      </c>
-      <c r="L15" s="1">
-        <f t="shared" si="1"/>
-        <v>1.3219280948873624</v>
-      </c>
-      <c r="M15" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N15" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C16" s="1">
-        <f>IF(C5&gt;0,1+LOG(C5,2),0)</f>
         <v>0</v>
       </c>
       <c r="D16" s="1">
@@ -991,15 +1004,15 @@
         <v>2</v>
       </c>
       <c r="E16" s="1">
-        <f>IF(E5&gt;0,1+LOG(E5,2),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F16" s="1">
-        <f>IF(F5&gt;0,1+LOG(F5,2),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <f>IF(G5&gt;0,1+LOG(G5,2),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I16" s="5">
@@ -1007,29 +1020,29 @@
         <v>2.3219280948873622</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K16" s="1">
+        <f t="shared" si="3"/>
+        <v>4.6438561897747244</v>
+      </c>
+      <c r="L16" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C17" s="1">
         <f t="shared" si="1"/>
-        <v>4.6438561897747244</v>
-      </c>
-      <c r="L16" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M16" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N16" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C17" s="1">
-        <f>IF(C6&gt;0,1+LOG(C6,2),0)</f>
         <v>0</v>
       </c>
       <c r="D17" s="1">
@@ -1037,15 +1050,15 @@
         <v>0</v>
       </c>
       <c r="E17" s="1">
-        <f>IF(E6&gt;0,1+LOG(E6,2),0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F17" s="1">
-        <f>IF(F6&gt;0,1+LOG(F6,2),0)</f>
+        <f t="shared" si="2"/>
         <v>2.5849625007211561</v>
       </c>
       <c r="G17" s="1">
-        <f>IF(G6&gt;0,1+LOG(G6,2),0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I17" s="5">
@@ -1053,29 +1066,29 @@
         <v>0.73696559416620622</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K17" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <f t="shared" si="3"/>
+        <v>0.73696559416620622</v>
+      </c>
+      <c r="M17" s="1">
+        <f t="shared" si="3"/>
+        <v>1.905028425241329</v>
+      </c>
+      <c r="N17" s="1">
+        <f t="shared" si="3"/>
+        <v>0.73696559416620622</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C18" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L17" s="1">
-        <f t="shared" si="1"/>
-        <v>0.73696559416620622</v>
-      </c>
-      <c r="M17" s="1">
-        <f t="shared" si="1"/>
-        <v>1.905028425241329</v>
-      </c>
-      <c r="N17" s="1">
-        <f t="shared" si="1"/>
-        <v>0.73696559416620622</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C18" s="1">
-        <f>IF(C7&gt;0,1+LOG(C7,2),0)</f>
         <v>0</v>
       </c>
       <c r="D18" s="1">
@@ -1083,15 +1096,15 @@
         <v>0</v>
       </c>
       <c r="E18" s="1">
-        <f>IF(E7&gt;0,1+LOG(E7,2),0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F18" s="1">
-        <f>IF(F7&gt;0,1+LOG(F7,2),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G18" s="1">
-        <f>IF(G7&gt;0,1+LOG(G7,2),0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I18" s="5">
@@ -1099,28 +1112,28 @@
         <v>1.3219280948873624</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.3219280948873624</v>
       </c>
       <c r="M18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.3219280948873624</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="I19" s="11" t="s">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I19" s="8" t="s">
         <v>16</v>
       </c>
       <c r="J19" s="5">
@@ -1128,64 +1141,64 @@
         <v>1.3605629666907513</v>
       </c>
       <c r="K19" s="5">
-        <f t="shared" ref="K19:N19" si="3">SQRT((K13*K13)+(K14*K14)+(K15*K15)+(K16*K16)+(K17*K17)+(K18*K18))</f>
+        <f t="shared" ref="K19:N19" si="5">SQRT((K13*K13)+(K14*K14)+(K15*K15)+(K16*K16)+(K17*K17)+(K18*K18))</f>
         <v>4.8390631218903684</v>
       </c>
       <c r="L19" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.4053274103835309</v>
       </c>
       <c r="M19" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.9320380429109734</v>
       </c>
       <c r="N19" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.6447379633693955</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="9" t="s">
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="17">
         <f>((1+LOG(1,2))*I13)</f>
         <v>0.32192809488736235</v>
       </c>
-      <c r="G21" s="7">
-        <v>0</v>
-      </c>
-      <c r="H21" s="7">
-        <v>0</v>
-      </c>
-      <c r="I21" s="7">
+      <c r="G21" s="17">
+        <v>0</v>
+      </c>
+      <c r="H21" s="17">
+        <v>0</v>
+      </c>
+      <c r="I21" s="17">
         <f>((1+LOG(1,2))*I16)</f>
         <v>2.3219280948873622</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J21" s="17">
         <f>((1+LOG(1,2))*I17)</f>
         <v>0.73696559416620622</v>
       </c>
-      <c r="K21" s="8">
-        <v>0</v>
-      </c>
-      <c r="L21" t="s">
+      <c r="K21" s="18">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="1">
         <f>SQRT((F21*F21+G21*G21+H21*H21+I21*I21+J21*J21+K21*K21))</f>
         <v>2.4572557992789053</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C23" s="10" t="s">
         <v>27</v>
       </c>
@@ -1195,19 +1208,19 @@
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
-      <c r="J23" s="9" t="s">
+      <c r="J23" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K23" s="9" t="s">
+      <c r="K23" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="M23" s="12" t="s">
+      <c r="M23" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="N23" s="12"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C24" s="9" t="s">
+      <c r="N23" s="14"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C24" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
@@ -1242,15 +1255,15 @@
         <f>J24/(J19*M$21)</f>
         <v>3.0999075699758943E-2</v>
       </c>
-      <c r="M24" s="9" t="s">
+      <c r="M24" s="6" t="s">
         <v>19</v>
       </c>
       <c r="N24" s="3">
         <v>0.9155248830506596</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C25" s="9" t="s">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C25" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D25" s="3">
@@ -1278,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J25" s="3">
-        <f t="shared" ref="J25:J28" si="4">SUM(D25:I25)</f>
+        <f t="shared" ref="J25:J28" si="6">SUM(D25:I25)</f>
         <v>10.886337853932316</v>
       </c>
       <c r="K25" s="3">
         <f>J25/(K19*M$21)</f>
         <v>0.9155248830506596</v>
       </c>
-      <c r="M25" s="9" t="s">
+      <c r="M25" s="6" t="s">
         <v>21</v>
       </c>
       <c r="N25" s="3">
         <v>0.31755121493116578</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C26" s="9" t="s">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C26" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
@@ -1321,22 +1334,22 @@
         <v>0</v>
       </c>
       <c r="J26" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.5431182869847494</v>
       </c>
       <c r="K26" s="3">
         <f>J26/(L19*M$21)</f>
         <v>9.1890339649259953E-2</v>
       </c>
-      <c r="M26" s="9" t="s">
+      <c r="M26" s="6" t="s">
         <v>22</v>
       </c>
       <c r="N26" s="3">
         <v>0.18567014825856626</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C27" s="9" t="s">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C27" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
@@ -1360,26 +1373,26 @@
         <v>1.4039404053114881</v>
       </c>
       <c r="I27" s="3">
-        <f t="shared" ref="I27:I28" si="5">K22*L19</f>
+        <f t="shared" ref="I27" si="7">K22*L19</f>
         <v>0</v>
       </c>
       <c r="J27" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.5075781035892948</v>
       </c>
       <c r="K27" s="3">
         <f>J27/(M19*M$21)</f>
         <v>0.31755121493116578</v>
       </c>
-      <c r="M27" s="9" t="s">
+      <c r="M27" s="6" t="s">
         <v>20</v>
       </c>
       <c r="N27" s="3">
         <v>9.1890339649259953E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C28" s="9" t="s">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C28" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D28" s="3">
@@ -1407,106 +1420,191 @@
         <v>0</v>
       </c>
       <c r="J28" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.75039368354036251</v>
       </c>
       <c r="K28" s="3">
         <f>J28/(N19*M$21)</f>
         <v>0.18567014825856626</v>
       </c>
-      <c r="M28" s="9" t="s">
+      <c r="M28" s="6" t="s">
         <v>18</v>
       </c>
       <c r="N28" s="3">
         <v>3.0999075699758943E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B32" s="13" t="s">
+      <c r="B31" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B34" s="13"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B34" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
       <c r="E34" s="13"/>
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
+      <c r="I34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.32192809488736235</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1.3219280948873624</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0</v>
+      </c>
+      <c r="I35" s="1">
+        <v>1.3605629666907513</v>
+      </c>
+      <c r="J35" s="15"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.6438561897747247</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0.73696559416620622</v>
+      </c>
+      <c r="H36" s="1">
+        <v>1.3219280948873624</v>
+      </c>
+      <c r="I36" s="1">
+        <v>1.6447379633693955</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="1">
+        <f>PRODUCT(C35:C36)</f>
+        <v>0.20727539655561314</v>
+      </c>
+      <c r="D37" s="1">
+        <f t="shared" ref="D37:H37" si="8">PRODUCT(D35:D36)</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H37" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="16">
+        <v>0.20727539655561314</v>
+      </c>
+      <c r="J37" s="16">
+        <f>I37/(I35/I36)</f>
+        <v>0.25056812652828203</v>
+      </c>
+      <c r="K37" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="N24:N28">
     <sortCondition descending="1" ref="N24:N28"/>
   </sortState>
-  <mergeCells count="4">
+  <mergeCells count="5">
+    <mergeCell ref="B34:H34"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="C23:I23"/>
     <mergeCell ref="M23:N23"/>
-    <mergeCell ref="B32:M36"/>
+    <mergeCell ref="B31:H32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
